--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Portland_Trail_Blazers.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Portland_Trail_Blazers.xlsx
@@ -764,43 +764,43 @@
         <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>663</v>
+        <v>698</v>
       </c>
       <c r="G4" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H4" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I4" t="n">
-        <v>0.394</v>
+        <v>0.395</v>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L4" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="M4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>0.525</v>
+        <v>0.523</v>
       </c>
       <c r="P4" t="n">
-        <v>0.523</v>
+        <v>0.522</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
@@ -812,19 +812,19 @@
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U4" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="V4" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="W4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y4" t="n">
         <v>25</v>
@@ -833,10 +833,10 @@
         <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AB4" t="n">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -852,49 +852,49 @@
         <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>624</v>
+        <v>667</v>
       </c>
       <c r="G5" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H5" t="n">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="I5" t="n">
-        <v>0.475</v>
+        <v>0.464</v>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L5" t="n">
-        <v>0.417</v>
+        <v>0.398</v>
       </c>
       <c r="M5" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="N5" t="n">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="O5" t="n">
-        <v>0.509</v>
+        <v>0.503</v>
       </c>
       <c r="P5" t="n">
-        <v>0.553</v>
+        <v>0.538</v>
       </c>
       <c r="Q5" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R5" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="S5" t="n">
         <v>0.824</v>
@@ -909,22 +909,22 @@
         <v>53</v>
       </c>
       <c r="W5" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
         <v>8</v>
       </c>
       <c r="Z5" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB5" t="n">
-        <v>357</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6">
@@ -940,64 +940,64 @@
         <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="G6" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H6" t="n">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I6" t="n">
-        <v>0.59</v>
+        <v>0.576</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" t="n">
-        <v>0.25</v>
+        <v>0.238</v>
       </c>
       <c r="M6" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N6" t="n">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="O6" t="n">
-        <v>0.624</v>
+        <v>0.61</v>
       </c>
       <c r="P6" t="n">
-        <v>0.601</v>
+        <v>0.587</v>
       </c>
       <c r="Q6" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R6" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S6" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="T6" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="U6" t="n">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="V6" t="n">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="W6" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="X6" t="n">
         <v>28</v>
@@ -1006,13 +1006,13 @@
         <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AA6" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="n">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7">
@@ -1028,43 +1028,43 @@
         <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="G7" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H7" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I7" t="n">
-        <v>0.538</v>
+        <v>0.52</v>
       </c>
       <c r="J7" t="n">
         <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L7" t="n">
-        <v>0.308</v>
+        <v>0.286</v>
       </c>
       <c r="M7" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N7" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O7" t="n">
-        <v>0.654</v>
+        <v>0.639</v>
       </c>
       <c r="P7" t="n">
-        <v>0.59</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="Q7" t="n">
         <v>18</v>
@@ -1076,31 +1076,31 @@
         <v>0.621</v>
       </c>
       <c r="T7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U7" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="V7" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="W7" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -1204,79 +1204,79 @@
         <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="G9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H9" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="I9" t="n">
-        <v>0.478</v>
+        <v>0.486</v>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L9" t="n">
-        <v>0.317</v>
+        <v>0.328</v>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N9" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O9" t="n">
-        <v>0.616</v>
+        <v>0.623</v>
       </c>
       <c r="P9" t="n">
-        <v>0.551</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="Q9" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="R9" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="S9" t="n">
-        <v>0.828</v>
+        <v>0.769</v>
       </c>
       <c r="T9" t="n">
         <v>30</v>
       </c>
       <c r="U9" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="V9" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="W9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X9" t="n">
         <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB9" t="n">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10">
@@ -1380,79 +1380,79 @@
         <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I11" t="n">
-        <v>0.408</v>
+        <v>0.425</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L11" t="n">
-        <v>0.313</v>
+        <v>0.278</v>
       </c>
       <c r="M11" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N11" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="O11" t="n">
-        <v>0.436</v>
+        <v>0.468</v>
       </c>
       <c r="P11" t="n">
-        <v>0.444</v>
+        <v>0.456</v>
       </c>
       <c r="Q11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S11" t="n">
-        <v>0.68</v>
+        <v>0.704</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V11" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="W11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA11" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AB11" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -1468,43 +1468,43 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="G12" t="n">
         <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I12" t="n">
-        <v>0.325</v>
+        <v>0.302</v>
       </c>
       <c r="J12" t="n">
         <v>9</v>
       </c>
       <c r="K12" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L12" t="n">
-        <v>0.29</v>
+        <v>0.273</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>0.444</v>
+        <v>0.4</v>
       </c>
       <c r="P12" t="n">
-        <v>0.438</v>
+        <v>0.407</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1556,79 +1556,79 @@
         <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H13" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I13" t="n">
-        <v>0.405</v>
+        <v>0.42</v>
       </c>
       <c r="J13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K13" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L13" t="n">
-        <v>0.361</v>
+        <v>0.372</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Q13" t="n">
         <v>6</v>
       </c>
-      <c r="O13" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0.857</v>
       </c>
       <c r="T13" t="n">
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V13" t="n">
+        <v>11</v>
+      </c>
+      <c r="W13" t="n">
         <v>8</v>
       </c>
-      <c r="W13" t="n">
-        <v>7</v>
-      </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB13" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -1644,31 +1644,31 @@
         <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" t="n">
-        <v>0.429</v>
+        <v>0.455</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L14" t="n">
-        <v>0.273</v>
+        <v>0.333</v>
       </c>
       <c r="M14" t="n">
         <v>6</v>
@@ -1680,7 +1680,7 @@
         <v>0.6</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5</v>
+        <v>0.545</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1690,13 +1690,13 @@
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W14" t="n">
         <v>4</v>
@@ -1714,7 +1714,7 @@
         <v>11</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -1982,77 +1982,77 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>6000</v>
+        <v>6240</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="H18" t="n">
-        <v>2202</v>
+        <v>2283</v>
       </c>
       <c r="I18" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="J18" t="n">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="K18" t="n">
-        <v>934</v>
+        <v>964</v>
       </c>
       <c r="L18" t="n">
-        <v>0.349</v>
+        <v>0.346</v>
       </c>
       <c r="M18" t="n">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="N18" t="n">
-        <v>1268</v>
+        <v>1319</v>
       </c>
       <c r="O18" t="n">
-        <v>0.532</v>
+        <v>0.53</v>
       </c>
       <c r="P18" t="n">
-        <v>0.528</v>
+        <v>0.526</v>
       </c>
       <c r="Q18" t="n">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="R18" t="n">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="S18" t="n">
-        <v>0.787</v>
+        <v>0.783</v>
       </c>
       <c r="T18" t="n">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="U18" t="n">
-        <v>851</v>
+        <v>886</v>
       </c>
       <c r="V18" t="n">
-        <v>1104</v>
+        <v>1147</v>
       </c>
       <c r="W18" t="n">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="X18" t="n">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Z18" t="n">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="AA18" t="n">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="AB18" t="n">
-        <v>2718</v>
+        <v>2812</v>
       </c>
     </row>
   </sheetData>
